--- a/artfynd/A 13495-2023.xlsx
+++ b/artfynd/A 13495-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY77"/>
+  <dimension ref="A1:AY78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9992,6 +9992,151 @@
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>110815644</v>
+      </c>
+      <c r="B78" t="n">
+        <v>89755</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1506</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Ostticka</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Skeletocutis odora</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>(Sacc.) Ginns</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Holmnäset, Ånge, Mpd</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>515078.6027669269</v>
+      </c>
+      <c r="R78" t="n">
+        <v>6924719.271727256</v>
+      </c>
+      <c r="S78" t="n">
+        <v>10</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Ånge</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Haverö</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>2023-07-13</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>2023-07-13</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>På ~15 cm i diameter självgallrad tallåga med barken kvar. Tillsammans med rynkskinn.</t>
+        </is>
+      </c>
+      <c r="AD78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
+      <c r="AG78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ78" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK78" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO78" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AS78" t="inlineStr">
+        <is>
+          <t>Sten Svantesson</t>
+        </is>
+      </c>
+      <c r="AT78" t="inlineStr"/>
+      <c r="AW78" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX78" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Sebastian Kirppu, Karolin Hård</t>
+        </is>
+      </c>
+      <c r="AY78" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 13495-2023.xlsx
+++ b/artfynd/A 13495-2023.xlsx
@@ -10037,10 +10037,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>515078.6027669269</v>
+        <v>515079</v>
       </c>
       <c r="R78" t="n">
-        <v>6924719.271727256</v>
+        <v>6924719</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -10070,19 +10070,9 @@
           <t>2023-07-13</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA78" t="inlineStr">
         <is>
           <t>2023-07-13</t>
-        </is>
-      </c>
-      <c r="AB78" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">

--- a/artfynd/A 13495-2023.xlsx
+++ b/artfynd/A 13495-2023.xlsx
@@ -9997,7 +9997,7 @@
         <v>110815644</v>
       </c>
       <c r="B78" t="n">
-        <v>89755</v>
+        <v>89889</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>

--- a/artfynd/A 13495-2023.xlsx
+++ b/artfynd/A 13495-2023.xlsx
@@ -9997,7 +9997,7 @@
         <v>110815644</v>
       </c>
       <c r="B78" t="n">
-        <v>89889</v>
+        <v>89903</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
